--- a/Masjid/output/SPMD03948/SenaraiWargaEmas.xlsx
+++ b/Masjid/output/SPMD03948/SenaraiWargaEmas.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t>MASJID SIMPANG TIGA TASEK GELUGOR</t>
   </si>
   <si>
-    <t>Senarai Ahli Kariah Warga Emas</t>
+    <t>Senarai Wargaemas</t>
   </si>
   <si>
     <t>No</t>
@@ -29,482 +29,1786 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>No.IC</t>
+    <t>No. KP</t>
+  </si>
+  <si>
+    <t>Tarikh Lahir</t>
   </si>
   <si>
     <t>Umur</t>
   </si>
   <si>
+    <t>No.Telefon</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
     <t>ARIFFIN BIN AHMAD</t>
   </si>
   <si>
+    <t>1956-11-10</t>
+  </si>
+  <si>
+    <t>0124692152</t>
+  </si>
+  <si>
+    <t>440, MK 12 JALAN RAYA SIMPANG TIGA, 13300 TASEK GELUGOR , S.P.U, PULAU PINANG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOHD NOOR BIN MUHAMMAD </t>
   </si>
   <si>
+    <t>1942-10-14</t>
+  </si>
+  <si>
+    <t>0124538173</t>
+  </si>
+  <si>
+    <t>2381, TASEK GELUGOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">SONAN BIN LIWAN </t>
   </si>
   <si>
+    <t>1947-10-30</t>
+  </si>
+  <si>
+    <t>0195974725</t>
+  </si>
+  <si>
+    <t>1991, SIMPANG 3 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>WALID BIN KADIR</t>
   </si>
   <si>
+    <t>1944-06-13</t>
+  </si>
+  <si>
+    <t>0124140929</t>
+  </si>
+  <si>
+    <t>8284, JALAN BESAR, 13300 TASEK GELUGOR, S.P.U. PULAU PINANG</t>
+  </si>
+  <si>
     <t>SALMAH BT. HASHIM</t>
   </si>
   <si>
+    <t>1952-08-22</t>
+  </si>
+  <si>
+    <t>045734951</t>
+  </si>
+  <si>
+    <t>2585, JALAN BESAR, KAMPUNG MASTER, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>HASNAH BT MD JUSOH</t>
   </si>
   <si>
+    <t>1949-12-08</t>
+  </si>
+  <si>
+    <t>045735541</t>
+  </si>
+  <si>
+    <t>1121, JALAN BESAR, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>OMAR BIN AYOB</t>
   </si>
   <si>
+    <t>1949-12-03</t>
+  </si>
+  <si>
+    <t>0174534518</t>
+  </si>
+  <si>
+    <t>NO. 2690 JALAN BESAR, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>MAHANI BINTI AHMAD</t>
   </si>
   <si>
+    <t>1958-10-11</t>
+  </si>
+  <si>
+    <t>0194458343</t>
+  </si>
+  <si>
+    <t>NO. 2130, JALAN BESAR, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ABDOL RAHMAN BIN JAAFAR</t>
   </si>
   <si>
+    <t>1957-05-12</t>
+  </si>
+  <si>
+    <t>0174433490</t>
+  </si>
+  <si>
+    <t>NO, 2136, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>JUWARIAH BINTI HAMAT</t>
   </si>
   <si>
+    <t>1952-11-09</t>
+  </si>
+  <si>
+    <t>045734803</t>
+  </si>
+  <si>
+    <t>2443, JALAN BESAR, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ZALEHA BINTI MAT ISA</t>
   </si>
   <si>
+    <t>1962-10-15</t>
+  </si>
+  <si>
+    <t>0134317592</t>
+  </si>
+  <si>
+    <t>121, JALAN BESAR, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ABDUL RASHID GAN BIN ABDULLAH</t>
   </si>
   <si>
+    <t>1953-03-08</t>
+  </si>
+  <si>
+    <t>01115424939</t>
+  </si>
+  <si>
+    <t>1817, JALAN BESAR, SIMPANG TIGA, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>KHALID BIN AWANG</t>
   </si>
   <si>
+    <t>1941-12-05</t>
+  </si>
+  <si>
+    <t>0195164391</t>
+  </si>
+  <si>
+    <t>NO. 33, JALAN SATU, TAMAN HAJI AHMAD JAMIL, TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ABDUL HAMID BIN SULAIMAN</t>
   </si>
   <si>
+    <t>1956-05-22</t>
+  </si>
+  <si>
+    <t>01126428226/045736689</t>
+  </si>
+  <si>
+    <t>NO. 36, JALAN SATU, TAMAN HAJI AHMAD JAMIL, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ARSHAAD BIN YAUP</t>
   </si>
   <si>
+    <t>1955-01-12</t>
+  </si>
+  <si>
+    <t>0134196457</t>
+  </si>
+  <si>
+    <t>LOT 57, KG DESA PURI</t>
+  </si>
+  <si>
     <t>NAFIAH BIN SHAFIE</t>
   </si>
   <si>
+    <t>1948-01-13</t>
+  </si>
+  <si>
+    <t>0174338563</t>
+  </si>
+  <si>
+    <t>7993, DESA PURI, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA</t>
+  </si>
+  <si>
     <t>YAM BINTI OTHAMAN</t>
   </si>
   <si>
+    <t>1952-10-05</t>
+  </si>
+  <si>
+    <t>0134307518</t>
+  </si>
+  <si>
+    <t>TS 11026, DESA PURI, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>AZLAN BIN ABDULLAH @ TANG BOON KONG</t>
   </si>
   <si>
+    <t>1951-11-01</t>
+  </si>
+  <si>
+    <t>01124318489</t>
+  </si>
+  <si>
     <t>ARIFFIN BIN MAT</t>
   </si>
   <si>
+    <t>1924-11-26</t>
+  </si>
+  <si>
+    <t>045721393/0102437133</t>
+  </si>
+  <si>
+    <t>NO. 7995, DESA PURI, 13300 TASEK GELUGOR, PULAU PINANG S.P.U</t>
+  </si>
+  <si>
     <t>ROKIAH BINTI SAAD</t>
   </si>
   <si>
+    <t>1949-01-29</t>
+  </si>
+  <si>
+    <t>0122940575</t>
+  </si>
+  <si>
+    <t>NO. 8565, DESA PURI, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HJH ROHANAH BT BAKAR</t>
   </si>
   <si>
+    <t>1945-06-04</t>
+  </si>
+  <si>
+    <t>01139812341</t>
+  </si>
+  <si>
+    <t>LOT 40, KG DESA PURI MK 13, 13300 SPG 3, TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>CHE SU BIN CHIN</t>
   </si>
   <si>
+    <t>1944-03-18</t>
+  </si>
+  <si>
+    <t>0164704007</t>
+  </si>
+  <si>
+    <t>NO. 7986 DESA PURI, TASEK GELUGOR, 13300 SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>PATIMAH BINTI SALLEH</t>
   </si>
   <si>
+    <t>1956-03-28</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NO. 8565, KAMPUNG  DESA PURI, 13300 TASEK GELUGOR, SPU</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAHARI BIN ABU BAKAR </t>
   </si>
   <si>
+    <t>1958-01-29</t>
+  </si>
+  <si>
+    <t>0164062874</t>
+  </si>
+  <si>
+    <t>NO. 7990, KG. DESA PURI, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISMAIL BIN LAZIM</t>
   </si>
   <si>
+    <t>1955-03-07</t>
+  </si>
+  <si>
+    <t>0174068649</t>
+  </si>
+  <si>
+    <t>NO. 11018, DESA PURI, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>WAN FATIMAH BINTI AHAMAD</t>
   </si>
   <si>
+    <t>1951-12-28</t>
+  </si>
+  <si>
+    <t>0174098491</t>
+  </si>
+  <si>
+    <t>LOT 58, KAMPUNG DESA PURI, 13300 TASEK GELUGOR, S.P.U, PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHIK BIN SAAD</t>
   </si>
   <si>
+    <t>1934-08-24</t>
+  </si>
+  <si>
+    <t>NO. 7990, DESA PURI SIMPANG TIGA, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ZAINAH BINTI ARSHAD</t>
   </si>
   <si>
+    <t>1955-02-04</t>
+  </si>
+  <si>
+    <t>0124419594</t>
+  </si>
+  <si>
+    <t>NO. 10738, DESA PURI, 13300 TASEK GELUGOR, PENANG</t>
+  </si>
+  <si>
     <t>ZULKIFLI B HARUN</t>
   </si>
   <si>
+    <t>1950-02-17</t>
+  </si>
+  <si>
+    <t>0174583755</t>
+  </si>
+  <si>
+    <t>NO. 7985, KAMPUNG DESA PURI, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA</t>
+  </si>
+  <si>
     <t>AZMI BIN CHIN</t>
   </si>
   <si>
+    <t>1956-09-29</t>
+  </si>
+  <si>
+    <t>0134864324</t>
+  </si>
+  <si>
+    <t>NO. 8791, DESA PURI, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABU HASAN BIN LAZAIN</t>
   </si>
   <si>
+    <t>1957-02-20</t>
+  </si>
+  <si>
+    <t>0172731383</t>
+  </si>
+  <si>
+    <t>NO. 11018, KAMPUNG DESA PURI, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHE TOM BT HASHIM @ HASSIM</t>
   </si>
   <si>
+    <t>1947-06-03</t>
+  </si>
+  <si>
+    <t>0124061475</t>
+  </si>
+  <si>
+    <t>BLOK D 401, JALAN ARA KUDA, BLK D TINGKAT 4, TAMAN RETHINA, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAKARIA BIN AHMAD </t>
   </si>
   <si>
+    <t>1957-06-02</t>
+  </si>
+  <si>
+    <t>NO. 8, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>YUSOF BIN HAMID</t>
   </si>
   <si>
+    <t>1948-04-01</t>
+  </si>
+  <si>
+    <t>NO. 11, LORONG 3, TAMAN DESA RAKYAT, TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>SAAD BIN SUAID</t>
   </si>
   <si>
+    <t>1944-03-21</t>
+  </si>
+  <si>
+    <t>0124523744</t>
+  </si>
+  <si>
+    <t>NO. 6, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HAMID BIN HASHIM</t>
   </si>
   <si>
+    <t>1946-11-02</t>
+  </si>
+  <si>
+    <t>NO. 12, LORONG DESA RAKYAT 3, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MOHD YATIM BIN ISMAIL</t>
   </si>
   <si>
+    <t>1949-01-18</t>
+  </si>
+  <si>
+    <t>0174178535</t>
+  </si>
+  <si>
+    <t>NO. 25, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MOHD NAZRI BIN YUSOF</t>
   </si>
   <si>
+    <t>1976-07-15</t>
+  </si>
+  <si>
+    <t>0165645238</t>
+  </si>
+  <si>
+    <t>NO. 15, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHE ANI BIN DARUS </t>
   </si>
   <si>
+    <t>1942-07-05</t>
+  </si>
+  <si>
+    <t>0175492234</t>
+  </si>
+  <si>
+    <t>NO. 12, LORONG 2, TAMAN DESA RAKYAT, TASEK GELUGOR, S.P.U</t>
+  </si>
+  <si>
     <t>JURIAH BINTI IBRAHIM</t>
   </si>
   <si>
+    <t>1954-09-21</t>
+  </si>
+  <si>
+    <t>0134274160</t>
+  </si>
+  <si>
+    <t>NO. 13, LORONG DESA RAKYAT 3, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>SITI HAMINAH BINTI CHE LAH</t>
   </si>
   <si>
-    <t>-</t>
+    <t>1950-05-14</t>
+  </si>
+  <si>
+    <t>0175882261</t>
+  </si>
+  <si>
+    <t>NO. 4, LORONG DESA RAKYAT 3, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR</t>
   </si>
   <si>
     <t>YAHAYA BIN SAARI</t>
   </si>
   <si>
+    <t>1949-04-26</t>
+  </si>
+  <si>
+    <t>0175727140</t>
+  </si>
+  <si>
+    <t>NO. 21, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ISMAIL BIN SAAD</t>
   </si>
   <si>
+    <t>1974-07-29</t>
+  </si>
+  <si>
+    <t>0124402757</t>
+  </si>
+  <si>
+    <t>NO. 15, LORONG DESA RAKYAT 3, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>MIAH BT AB. HAMID</t>
   </si>
   <si>
+    <t>1947-01-19</t>
+  </si>
+  <si>
+    <t>0175194097</t>
+  </si>
+  <si>
+    <t>NO. 3, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HASNAH BINTI HASSAN</t>
   </si>
   <si>
+    <t>1950-01-19</t>
+  </si>
+  <si>
+    <t>NO. 27, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, JALAN TASEK GELUGOR, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SAAD BIN OSMAN</t>
   </si>
   <si>
+    <t>1954-11-20</t>
+  </si>
+  <si>
+    <t>0174056481</t>
+  </si>
+  <si>
+    <t>NO. 19, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>AZAHAR BIN ABDULLAH</t>
   </si>
   <si>
+    <t>1955-11-08</t>
+  </si>
+  <si>
+    <t>0124188721</t>
+  </si>
+  <si>
+    <t>NO. 27, LORONG DESA RAKYAT 3, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MD YUSOFF BIN SAD</t>
   </si>
   <si>
+    <t>1950-08-10</t>
+  </si>
+  <si>
+    <t>0174601250</t>
+  </si>
+  <si>
+    <t>NO. 26, LORONG DESA RAKYAT 3, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>KALTOM BINTI DIN</t>
   </si>
   <si>
+    <t>1958-12-22</t>
+  </si>
+  <si>
+    <t>01110322103</t>
+  </si>
+  <si>
+    <t>NO. 24, LORONG DESA RAKYAT 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, S.P.U</t>
+  </si>
+  <si>
     <t>SAAD BIN HAMID</t>
   </si>
   <si>
+    <t>1959-06-29</t>
+  </si>
+  <si>
+    <t>NO. 9, LORONG DESA RAKYAT 3, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MUHTAR BIN BACOK</t>
   </si>
   <si>
+    <t>1951-06-02</t>
+  </si>
+  <si>
+    <t>0124608547</t>
+  </si>
+  <si>
+    <t>NO. 8919 G, PT 1753, JALAN PADANG CHEMPEDAK PAYA TOK AKIL, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ABD RAHMAN B. ABD WAHAB</t>
   </si>
   <si>
+    <t>1954-08-12</t>
+  </si>
+  <si>
+    <t>0135328161</t>
+  </si>
+  <si>
+    <t>NO. 8916, B. KAMPUNG PAYA TOK AKIL, 13300 TASEK GELUGOR, S.P.U, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MOHD GHAZALI BIN MAN</t>
   </si>
   <si>
+    <t>1951-05-21</t>
+  </si>
+  <si>
+    <t>0175068751</t>
+  </si>
+  <si>
+    <t>NO. 8925, KAMPUNG PAYA TOK AKIL, 13300 TASEK GELUGOR, S.P.U</t>
+  </si>
+  <si>
     <t>ISMAIL BIN AHAMD</t>
   </si>
   <si>
+    <t>1944-09-04</t>
+  </si>
+  <si>
+    <t>0124343726</t>
+  </si>
+  <si>
+    <t>NO. 4242, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HJ. NORDIN B CHE MAMAT</t>
   </si>
   <si>
+    <t>1944-06-20</t>
+  </si>
+  <si>
+    <t>NO. 732, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISMAIL B. NOH</t>
   </si>
   <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>0184076275</t>
+  </si>
+  <si>
+    <t>NO. 9129, KAMPUNG TEPI SUNGAI,  SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>YUSOF BIN AHMAD</t>
   </si>
   <si>
+    <t>1942-12-04</t>
+  </si>
+  <si>
+    <t>0104627606</t>
+  </si>
+  <si>
+    <t>NO. 8288, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
+    <t>OTHMAN BIN IBRAHIM</t>
+  </si>
+  <si>
+    <t>1949-10-20</t>
+  </si>
+  <si>
+    <t>0124616479</t>
+  </si>
+  <si>
+    <t>NO. 1657, KAMPUNG TEPI SUNGAI,  SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>AZAHAM B. K.M. RASHID</t>
   </si>
   <si>
+    <t>1948-09-22</t>
+  </si>
+  <si>
+    <t>0174309757</t>
+  </si>
+  <si>
+    <t>NO. 2578, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HASHIM BIN REJAB</t>
   </si>
   <si>
+    <t>1954-12-18</t>
+  </si>
+  <si>
+    <t>0174850556</t>
+  </si>
+  <si>
+    <t>NO. 1236, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SAID BIN MAT</t>
   </si>
   <si>
+    <t>1946-06-21</t>
+  </si>
+  <si>
+    <t>0134350426</t>
+  </si>
+  <si>
+    <t>NO. 2190, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HARON BIN AHMAD</t>
   </si>
   <si>
+    <t>1950-04-26</t>
+  </si>
+  <si>
+    <t>0175082041</t>
+  </si>
+  <si>
+    <t>NO. 3363, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISHAK BIN SAAD</t>
   </si>
   <si>
+    <t>1954-03-01</t>
+  </si>
+  <si>
+    <t>0125744389</t>
+  </si>
+  <si>
+    <t>NO. 4934, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>TIMAH BT MAT</t>
   </si>
   <si>
+    <t>1934-09-04</t>
+  </si>
+  <si>
+    <t>NO. 8683, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISMAIL BIN DISA</t>
   </si>
   <si>
+    <t>0044-07-23</t>
+  </si>
+  <si>
+    <t>0193566658</t>
+  </si>
+  <si>
+    <t>NO. 4243, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SALMAH BINTI AHMAD</t>
   </si>
   <si>
+    <t>1949-08-25</t>
+  </si>
+  <si>
+    <t>0142438158</t>
+  </si>
+  <si>
+    <t>NO. 2612, MK 12, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABD TALIB BIN AHMAD</t>
   </si>
   <si>
+    <t>1947-12-02</t>
+  </si>
+  <si>
+    <t>0174550106</t>
+  </si>
+  <si>
+    <t>NO. 790, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHE OMAR BIN AHMAD</t>
   </si>
   <si>
+    <t>1954-10-09</t>
+  </si>
+  <si>
+    <t>0175060378</t>
+  </si>
+  <si>
+    <t>NO.2612, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABDUL RAHMAN BIN SAAD</t>
   </si>
   <si>
+    <t>1953-06-16</t>
+  </si>
+  <si>
+    <t>045720429 / 01137106356</t>
+  </si>
+  <si>
+    <t>SB 4240, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>NOOR BIN BAKAR</t>
   </si>
   <si>
+    <t>1955-02-24</t>
+  </si>
+  <si>
+    <t>NO. 10357, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>YAHYA BIN AHMAD</t>
   </si>
   <si>
+    <t>1941-07-11</t>
+  </si>
+  <si>
+    <t>01110785606</t>
+  </si>
+  <si>
+    <t>NO. 1172, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>AHMAD BIN MAHAMUD</t>
   </si>
   <si>
+    <t>1960-10-07</t>
+  </si>
+  <si>
+    <t>0164977585</t>
+  </si>
+  <si>
+    <t>NO. 2357, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SAAFIE BIN HARUN</t>
   </si>
   <si>
+    <t>1944-12-01</t>
+  </si>
+  <si>
+    <t>NO. 3330, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MAZENAH BINTI MAT</t>
   </si>
   <si>
+    <t>1946-11-30</t>
+  </si>
+  <si>
+    <t>0174795652</t>
+  </si>
+  <si>
+    <t>TBP 4969, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISHAK B. AWANG CHA (CIK)</t>
   </si>
   <si>
+    <t>1953-11-01</t>
+  </si>
+  <si>
+    <t>NO. 8685, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISHAK BIN JAB</t>
   </si>
   <si>
+    <t>1958-06-28</t>
+  </si>
+  <si>
+    <t>0175454215</t>
+  </si>
+  <si>
+    <t>NO. 3315, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABU BAKAR BIN DAIM</t>
   </si>
   <si>
+    <t>1941-11-16</t>
+  </si>
+  <si>
+    <t>NO. 4241, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHE PUTEH BT LAZIM</t>
   </si>
   <si>
+    <t>1957-04-23</t>
+  </si>
+  <si>
+    <t>0194412412</t>
+  </si>
+  <si>
+    <t>NO. 2129, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>AHMAD BIN ISMAIL</t>
   </si>
   <si>
+    <t>1937-08-18</t>
+  </si>
+  <si>
+    <t>0196791621</t>
+  </si>
+  <si>
+    <t>NO. 4239, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HASSAN BIN YAHAYA</t>
   </si>
   <si>
+    <t>1940-09-04</t>
+  </si>
+  <si>
+    <t>045735385</t>
+  </si>
+  <si>
+    <t>NO. 2050, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ELIAS BIN AHMAD</t>
   </si>
   <si>
+    <t>1956-03-10</t>
+  </si>
+  <si>
+    <t>0174380500</t>
+  </si>
+  <si>
+    <t>NO. 1829, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MAT ISA BIN RAMLI</t>
   </si>
   <si>
+    <t>1950-10-19</t>
+  </si>
+  <si>
+    <t>0174429897</t>
+  </si>
+  <si>
+    <t>NO. 8488, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MOHAMED NOR B. KASIM</t>
   </si>
   <si>
+    <t>1956-04-05</t>
+  </si>
+  <si>
+    <t>0174631040</t>
+  </si>
+  <si>
+    <t>NO. 30, JALAN SERI DESA, TAMAN SERI DESA 1, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABU SAMAN @ OTHMAN BIN AWANG</t>
   </si>
   <si>
+    <t>1942-10-20</t>
+  </si>
+  <si>
+    <t>0195200470</t>
+  </si>
+  <si>
+    <t>NO. 14, JALAN SERI DESA, TAMAN SERI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ABD HALIM BIN AWANG</t>
+  </si>
+  <si>
+    <t>1961-10-28</t>
+  </si>
+  <si>
+    <t>NO. 56, JALAN SRI DESA, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHE EMBI BIN AHMAD</t>
   </si>
   <si>
+    <t>1953-04-22</t>
+  </si>
+  <si>
+    <t>0195076404</t>
+  </si>
+  <si>
+    <t>NO. 31, JALAN SRI DESA, TAMAN SRI DESA 1, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ALI B. CHE RUS</t>
   </si>
   <si>
+    <t>1949-11-08</t>
+  </si>
+  <si>
+    <t>0124124774</t>
+  </si>
+  <si>
+    <t>NO. 11, JALAN SRI DESA, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ROHANI BINTI OSMAN</t>
   </si>
   <si>
+    <t>1974-06-05</t>
+  </si>
+  <si>
+    <t>0125750291</t>
+  </si>
+  <si>
+    <t>NO.37, LORONG SRI DESA, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ROSLI BIN CHEMAT</t>
   </si>
   <si>
+    <t>1953-06-27</t>
+  </si>
+  <si>
+    <t>0125746161</t>
+  </si>
+  <si>
+    <t>NO. 26, JALAN SRI DESA, TAMAN SRI DESA 1, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>TUNKU ISHAK B TUNKU ABDULLAH</t>
   </si>
   <si>
+    <t>1955-04-18</t>
+  </si>
+  <si>
+    <t>0175975629/ 045732390</t>
+  </si>
+  <si>
+    <t>NO. 35, JALAN SRI DESA, TAMAN SRI DESA 1, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>TIMAH BT AHMAD</t>
   </si>
   <si>
+    <t>1951-02-24</t>
+  </si>
+  <si>
+    <t>0125431258</t>
+  </si>
+  <si>
+    <t>NO. 77, TAMAN SRI DESA, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SAIDIN BIN AHMAD</t>
   </si>
   <si>
+    <t>1953-02-28</t>
+  </si>
+  <si>
+    <t>0135050959</t>
+  </si>
+  <si>
+    <t>NO. 4, JALAN SRI DESA, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>JOHARI BIN OMAR</t>
   </si>
   <si>
+    <t>1957-04-13</t>
+  </si>
+  <si>
+    <t>0174281301</t>
+  </si>
+  <si>
+    <t>NO. 39, LORONG SRI DESA, TAMAN SRI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>TIMAH BINTI JAB</t>
   </si>
   <si>
+    <t>1938-06-05</t>
+  </si>
+  <si>
+    <t>NO. 2, JALAN SRI DESA, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SHAHARUM B RAMLY</t>
   </si>
   <si>
+    <t>1952-02-10</t>
+  </si>
+  <si>
+    <t>0174024705</t>
+  </si>
+  <si>
+    <t>NO. 42, JALAN SRI DESA, RUMAH MURAH, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHE SU BINTI OTHMAN</t>
   </si>
   <si>
+    <t>1947-02-05</t>
+  </si>
+  <si>
+    <t>0125428556</t>
+  </si>
+  <si>
+    <t>NO. 21, LORONG SRI DESA, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>AZIZAN BIN OTHMAN</t>
   </si>
   <si>
+    <t>1956-06-05</t>
+  </si>
+  <si>
+    <t>01110663658</t>
+  </si>
+  <si>
+    <t>NO. 18, LORONG SRI DESA 3, TAMAN SRI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MD ZAKARIA MERICAN B CHE EMBEE</t>
   </si>
   <si>
+    <t>1953-03-06</t>
+  </si>
+  <si>
+    <t>NO. 49, LORONG SERI DESA 11, TAMAN SERI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MANAP BIN AHMAD</t>
   </si>
   <si>
+    <t>1951-08-10</t>
+  </si>
+  <si>
+    <t>NO. 25, LORONG SERI DESA 7, TAMAN SERI DESA 2, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MOHD ARIF BIN AHMAD</t>
   </si>
   <si>
+    <t>1958-02-24</t>
+  </si>
+  <si>
+    <t>0134284595</t>
+  </si>
+  <si>
+    <t>NO. 56, LORONG SRI DESA 15, TAMAN SRI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MUKHTAR BIN HJ WAHAB</t>
   </si>
   <si>
+    <t>1962-01-30</t>
+  </si>
+  <si>
+    <t>0196137104</t>
+  </si>
+  <si>
+    <t>NO. 16, LORONG SERI DESA 13, TAMAN SERI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>PUAD BIN YAACOB</t>
   </si>
   <si>
+    <t>1955-05-22</t>
+  </si>
+  <si>
+    <t>0174192582</t>
+  </si>
+  <si>
+    <t>NO. 9, LORONG 13, TAMAN SERI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>RAMBLI BIN MOHAMAD</t>
   </si>
   <si>
+    <t>1951-12-12</t>
+  </si>
+  <si>
+    <t>0174437665</t>
+  </si>
+  <si>
+    <t>NO. 32, LORONG 11, TAMAN SERI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>RAJEE BIN MOHD ZAIN</t>
   </si>
   <si>
+    <t>1952-03-11</t>
+  </si>
+  <si>
+    <t>01127463941</t>
+  </si>
+  <si>
+    <t>NO. 23, LORONG 4, TAMAN SERI DESA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SELASIAH BT MAN</t>
   </si>
   <si>
+    <t>1931-07-19</t>
+  </si>
+  <si>
+    <t>NO. 34, LORONG 3, TAMAN SERI DESA 2, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MOHD JAMIL ISMAIL</t>
   </si>
   <si>
+    <t>1949-08-05</t>
+  </si>
+  <si>
+    <t>NO. 5068, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>AZIZ BIN DIN</t>
   </si>
   <si>
+    <t>1950-03-06</t>
+  </si>
+  <si>
+    <t>NO. 8263, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABU BAKAR BIN ISHAK</t>
   </si>
   <si>
+    <t>1952-07-15</t>
+  </si>
+  <si>
+    <t>01123680752</t>
+  </si>
+  <si>
+    <t>NO. 5067, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>RAZALI BIN JAAFAR</t>
   </si>
   <si>
+    <t>1947-11-24</t>
+  </si>
+  <si>
+    <t>01156516404</t>
+  </si>
+  <si>
+    <t>NO. 5064-D, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>IBRAHIM BIN MAT ISA</t>
   </si>
   <si>
+    <t>1952-02-01</t>
+  </si>
+  <si>
+    <t>01124043261</t>
+  </si>
+  <si>
+    <t>NO. 3320, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>KASSIM BIN HAMID</t>
   </si>
   <si>
+    <t>1956-02-29</t>
+  </si>
+  <si>
+    <t>045734353</t>
+  </si>
+  <si>
+    <t>NO. 5946, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HALIM B. SAAD</t>
   </si>
   <si>
+    <t>1951-05-13</t>
+  </si>
+  <si>
+    <t>045734403/0108733119</t>
+  </si>
+  <si>
+    <t>NO. 1656, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HASSINAH BINTI SAAD</t>
   </si>
   <si>
+    <t>1954-05-03</t>
+  </si>
+  <si>
+    <t>0175183064</t>
+  </si>
+  <si>
     <t>SHARIFAH BINTI SAAD</t>
   </si>
   <si>
+    <t>1954-11-05</t>
+  </si>
+  <si>
+    <t>0175170890</t>
+  </si>
+  <si>
+    <t>NO. 3321, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SALBIAH BINTI SAAD</t>
   </si>
   <si>
+    <t>1949-05-25</t>
+  </si>
+  <si>
+    <t>0174293001</t>
+  </si>
+  <si>
+    <t>NO. 3322, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ABDULLAH BIN BAKAR</t>
+  </si>
+  <si>
+    <t>1947-05-13</t>
+  </si>
+  <si>
+    <t>NO. 5947, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>YUSOFF BIN ISMAIL</t>
   </si>
   <si>
+    <t>1946-12-07</t>
+  </si>
+  <si>
+    <t>0134132776</t>
+  </si>
+  <si>
+    <t>NO. 5061, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHE GAYAH BT HASHIM</t>
   </si>
   <si>
+    <t>1942-11-05</t>
+  </si>
+  <si>
+    <t>0194135433</t>
+  </si>
+  <si>
+    <t>NO. 5066, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SITI ZALEHA BINTI MUHAMAD</t>
   </si>
   <si>
+    <t>1958-03-26</t>
+  </si>
+  <si>
+    <t>0125258326</t>
+  </si>
+  <si>
+    <t>NO. 1869, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>JAMNAH BT MAT</t>
   </si>
   <si>
+    <t>1950-07-22</t>
+  </si>
+  <si>
+    <t>NO. 8787, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HJ SAMSUDIN B HJ MAT TAIB</t>
   </si>
   <si>
+    <t>1948-02-02</t>
+  </si>
+  <si>
+    <t>NO. 5064, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MAIMUNAH BINTI ABU OTHMAN</t>
   </si>
   <si>
+    <t>1950-03-27</t>
+  </si>
+  <si>
+    <t>0173723724</t>
+  </si>
+  <si>
+    <t>NO. 685 C, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ZULKIFLI BIN OTHMAN</t>
   </si>
   <si>
+    <t>1958-03-15</t>
+  </si>
+  <si>
+    <t>0174171695</t>
+  </si>
+  <si>
+    <t>NO. 2988, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABDULLAH BIN SHAFFIE</t>
   </si>
   <si>
+    <t>1956-03-13</t>
+  </si>
+  <si>
+    <t>0194130380</t>
+  </si>
+  <si>
+    <t>SB 2129 B, KAMPUNG BESAR, JALAN PADANG SERAI, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SUPIAH BT ISHAK</t>
   </si>
   <si>
+    <t>1950-07-25</t>
+  </si>
+  <si>
+    <t>NO. 3323, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HASHIM BIN DON</t>
   </si>
   <si>
+    <t>1951-04-17</t>
+  </si>
+  <si>
+    <t>NO. 10052, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISMAIL BIN HASHIM</t>
   </si>
   <si>
+    <t>1941-07-22</t>
+  </si>
+  <si>
+    <t>NO. 264, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>SAID BIN HAMID</t>
   </si>
   <si>
+    <t>1947-03-24</t>
+  </si>
+  <si>
+    <t>0194109808</t>
+  </si>
+  <si>
+    <t>NO. 8289, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>FATIMAH BT SULAIMAN</t>
   </si>
   <si>
+    <t>1948-12-19</t>
+  </si>
+  <si>
+    <t>0163277761</t>
+  </si>
+  <si>
+    <t>NO. 10053, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ZAKARIA BIN MAT NOH</t>
   </si>
   <si>
+    <t>1949-10-12</t>
+  </si>
+  <si>
+    <t>NO. 10055, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>JAMALUDIN BIN SULAIMAN</t>
   </si>
   <si>
+    <t>1950-10-03</t>
+  </si>
+  <si>
+    <t>01126801970</t>
+  </si>
+  <si>
+    <t>NO. 10051, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABDULLAH BIN AHMAD</t>
   </si>
   <si>
+    <t>1936-06-18</t>
+  </si>
+  <si>
+    <t>045733048</t>
+  </si>
+  <si>
+    <t>TBP 5647, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISMAIL B JAAFAR</t>
   </si>
   <si>
+    <t>1953-06-28</t>
+  </si>
+  <si>
+    <t>NO. 11, LADANG MAYFIELD, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HJ ZAITOON BIN SUPANGAT</t>
   </si>
   <si>
+    <t>1942-05-08</t>
+  </si>
+  <si>
+    <t>NO. 2626, TAMAN BAKAWALI, SIMPANG TIGA, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ZUBIR BIN AHMAD</t>
   </si>
   <si>
+    <t>1956-04-08</t>
+  </si>
+  <si>
+    <t>0173720338</t>
+  </si>
+  <si>
+    <t>NO. 10615, PENGKALAN BATU, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>FATIMAH BEE BT S.SAHUL HAMID</t>
   </si>
   <si>
+    <t>1956-03-01</t>
+  </si>
+  <si>
+    <t>0194205396</t>
+  </si>
+  <si>
+    <t>NO. 2479, KAMPUNG MASTER, MUKIM 12, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>BAKHTIAN BIN ISHAK</t>
   </si>
   <si>
+    <t>1954-03-03</t>
+  </si>
+  <si>
+    <t>0174275063</t>
+  </si>
+  <si>
+    <t>NO. 10784, KAMPUNG MASTER, JALAN BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>HAMID BIN SAAD</t>
   </si>
   <si>
+    <t>1948-12-21</t>
+  </si>
+  <si>
+    <t>0192870821</t>
+  </si>
+  <si>
+    <t>NO. 897, KAMPUNG MASTER, JALAN BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABU HASAN B ISMAIL</t>
   </si>
   <si>
+    <t>1942-09-27</t>
+  </si>
+  <si>
+    <t>0174347251</t>
+  </si>
+  <si>
+    <t>NO. 216, MUKIM 12, JALAN BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>JAMALIAH BT ISMAIL</t>
   </si>
   <si>
+    <t>1948-04-14</t>
+  </si>
+  <si>
+    <t>NO. 5014, UNIT 4, KAMPUNG MASTER, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ABU BAKAR BIN AHMAD</t>
   </si>
   <si>
+    <t>1948-09-04</t>
+  </si>
+  <si>
+    <t>0175820154</t>
+  </si>
+  <si>
+    <t>NO. 5099, KAMPUNG MASTER, JALAN BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>ISHAK BIN MAT NOH</t>
   </si>
   <si>
+    <t>1954-05-08</t>
+  </si>
+  <si>
+    <t>NO. 5014, KAMPUNG MASTER, JALAN BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA, PULAU PINANG</t>
+  </si>
+  <si>
     <t>MOHD NOOR BIN HJ.ABDULLAH</t>
   </si>
   <si>
+    <t>1959-11-11</t>
+  </si>
+  <si>
+    <t>0134062288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO.3 LORONG 13 TAMAN HAJI AHMAD JAMIL </t>
+  </si>
+  <si>
     <t>HAWILLAH BINTI MAN</t>
   </si>
   <si>
+    <t>1959-01-18</t>
+  </si>
+  <si>
+    <t>0195113722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 Jalan Satu </t>
+  </si>
+  <si>
     <t>MAT TAIB BIN MOHAMAD</t>
   </si>
   <si>
+    <t>1945-01-07</t>
+  </si>
+  <si>
+    <t>045136153</t>
+  </si>
+  <si>
+    <t>NO 2134, JALAN BESAR, TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>HJ AHMAD BIN SALLEH</t>
   </si>
   <si>
+    <t>1950-12-09</t>
+  </si>
+  <si>
+    <t>01110801263</t>
+  </si>
+  <si>
+    <t>547 MK 12 KG. BESAR, 13300 TASEK GELUGOR, SPU PULAU PINANG</t>
+  </si>
+  <si>
     <t>CHE HUSSAIN BIN ABDUL RAHIM</t>
   </si>
   <si>
+    <t>1956-04-06</t>
+  </si>
+  <si>
+    <t>0194478966</t>
+  </si>
+  <si>
+    <t>NO.5, JALAN SRI DESA, KAMPUNG BESAR,13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ESAH BT. ARSHAD</t>
   </si>
   <si>
+    <t>1950-10-20</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>10738, KAMPUNG DESA PURI, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>FATIMAH BINTI AHMAD</t>
   </si>
   <si>
+    <t>1924-11-04</t>
+  </si>
+  <si>
+    <t>010123123412</t>
+  </si>
+  <si>
+    <t>LOT. 3 LRG 2, TAMAN DESA RAKYAT, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>ROKIAH BINTI AWANG</t>
   </si>
   <si>
+    <t>1930-11-26</t>
+  </si>
+  <si>
+    <t>01146078881</t>
+  </si>
+  <si>
+    <t>809, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA</t>
+  </si>
+  <si>
     <t>YAM BINTI JAB</t>
   </si>
   <si>
+    <t>1931-09-04</t>
+  </si>
+  <si>
+    <t>014-3092114</t>
+  </si>
+  <si>
+    <t>2052, KAMPUNG DESA PURI, 13300 TASEK GELUGOR, S.P.U.</t>
+  </si>
+  <si>
     <t>ZAINAB BINTI ABD HAMID</t>
   </si>
   <si>
+    <t>1937-01-06</t>
+  </si>
+  <si>
+    <t>0123-3932120</t>
+  </si>
+  <si>
+    <t>5947, KAMPUNG BESAR, 13300 TASEK GELUGOR, SEBERANG PERAI UTARA.</t>
+  </si>
+  <si>
     <t>ABU OTHMAN BIN IBRAHIM</t>
   </si>
   <si>
+    <t>1949-10-28</t>
+  </si>
+  <si>
+    <t>1657, KAMPUNG TEPI SUNGAI, SIMPANG TIGA, 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>HALIMAH BTE CHE LONG</t>
   </si>
   <si>
+    <t>1959-09-26</t>
+  </si>
+  <si>
+    <t>0174754519</t>
+  </si>
+  <si>
+    <t>3954 JALAN RAYA 13300 TASEK GELUGOR</t>
+  </si>
+  <si>
     <t>HALIJAH BINTI MAT</t>
   </si>
   <si>
-    <t>ROSLAN BIN MOHAMAD</t>
-  </si>
-  <si>
-    <t>ABD HALIM BIN WAHAB</t>
+    <t>1938-06-21</t>
+  </si>
+  <si>
+    <t>8919 PAYA TOK AKIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <b val="0"/>
@@ -580,7 +1884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -591,6 +1895,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -892,32 +2199,34 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="true" style="0"/>
     <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19" customWidth="true" style="0"/>
-    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customHeight="1" ht="62">
+    <row r="5" spans="1:8" customHeight="1" ht="62">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -930,2161 +2239,3579 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
         <v>561110075143</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
         <v>421014075237</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
         <v>471030075013</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
         <v>440613025243</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4">
         <v>520822075378</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4">
         <v>491208025338</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4">
         <v>491203075117</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4">
         <v>581011075082</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="3">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
         <v>570512075183</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
         <v>521109035252</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" s="3">
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4">
         <v>521015075536</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="B17" s="3">
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4">
         <v>530308075657</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" s="3">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4">
         <v>410514075141</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" s="3">
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4">
         <v>560522075217</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20" s="3">
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4">
         <v>550112025365</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" s="3">
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4">
         <v>480113025307</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" s="3">
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4">
         <v>52100502</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="B23" s="3">
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3">
+        <v>77</v>
+      </c>
+      <c r="D23" s="4">
         <v>511101075541</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" s="3">
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4">
         <v>241126075049</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" s="3">
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4">
         <v>490120025232</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" s="3">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4">
         <v>450406025370</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" s="3">
         <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3">
+        <v>92</v>
+      </c>
+      <c r="D27" s="4">
         <v>440318075141</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" s="3">
         <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="3">
+        <v>96</v>
+      </c>
+      <c r="D28" s="4">
         <v>560328025718</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="B29" s="3">
         <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="D29" s="4">
         <v>580129025043</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="B30" s="3">
         <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3">
+        <v>104</v>
+      </c>
+      <c r="D30" s="4">
         <v>550307075397</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="B31" s="3">
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3">
+        <v>108</v>
+      </c>
+      <c r="D31" s="4">
         <v>511228025402</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="B32" s="3">
         <v>27</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="3">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4">
         <v>340824025456</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="B33" s="3">
         <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="3">
+        <v>115</v>
+      </c>
+      <c r="D33" s="4">
         <v>550204075642</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="B34" s="3">
         <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="3">
+        <v>119</v>
+      </c>
+      <c r="D34" s="4">
         <v>500217075195</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="B35" s="3">
         <v>30</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="3">
+        <v>123</v>
+      </c>
+      <c r="D35" s="4">
         <v>560929025115</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" s="3">
         <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="3">
+        <v>127</v>
+      </c>
+      <c r="D36" s="4">
         <v>570220075181</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="B37" s="3">
         <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="3">
+        <v>131</v>
+      </c>
+      <c r="D37" s="4">
         <v>470603075172</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="B38" s="3">
         <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="3">
+        <v>135</v>
+      </c>
+      <c r="D38" s="4">
         <v>570602026369</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="B39" s="3">
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="3">
+        <v>138</v>
+      </c>
+      <c r="D39" s="4">
         <v>480401095115</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="B40" s="3">
         <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="3">
+        <v>141</v>
+      </c>
+      <c r="D40" s="4">
         <v>440321075281</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="B41" s="3">
         <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="3">
+        <v>145</v>
+      </c>
+      <c r="D41" s="4">
         <v>461102075137</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="B42" s="3">
         <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="3">
+        <v>148</v>
+      </c>
+      <c r="D42" s="4">
         <v>490118075433</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="B43" s="3">
         <v>38</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="4">
+        <v>760715075471</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="3">
         <v>43</v>
       </c>
-      <c r="D43" s="3">
-        <v>760715075471</v>
-      </c>
-      <c r="E43" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="B44" s="3">
         <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="3">
+        <v>156</v>
+      </c>
+      <c r="D44" s="4">
         <v>420705075151</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="B45" s="3">
         <v>40</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="3">
+        <v>160</v>
+      </c>
+      <c r="D45" s="4">
         <v>541121075538</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="B46" s="3">
         <v>41</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="3">
+        <v>164</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="B47" s="3">
         <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="3">
+        <v>168</v>
+      </c>
+      <c r="D47" s="4">
         <v>490426075363</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="B48" s="3">
         <v>43</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="3">
+        <v>172</v>
+      </c>
+      <c r="D48" s="4">
         <v>470729075397</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="B49" s="3">
         <v>44</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="3">
+        <v>176</v>
+      </c>
+      <c r="D49" s="4">
         <v>490119025040</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="B50" s="3">
         <v>45</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="3">
+        <v>180</v>
+      </c>
+      <c r="D50" s="4">
         <v>500119025100</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="B51" s="3">
         <v>46</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="3">
+        <v>183</v>
+      </c>
+      <c r="D51" s="4">
         <v>541120026013</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="B52" s="3">
         <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="3">
+        <v>187</v>
+      </c>
+      <c r="D52" s="4">
         <v>551108075137</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="B53" s="3">
         <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="3">
+        <v>191</v>
+      </c>
+      <c r="D53" s="4">
         <v>500810075241</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="B54" s="3">
         <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="3">
+        <v>195</v>
+      </c>
+      <c r="D54" s="4">
         <v>581222075298</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="B55" s="3">
         <v>50</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="3">
+        <v>199</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="B56" s="3">
         <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="3">
+        <v>202</v>
+      </c>
+      <c r="D56" s="4">
         <v>510602715143</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="B57" s="3">
         <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="3">
+        <v>206</v>
+      </c>
+      <c r="D57" s="4">
         <v>540812075217</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="B58" s="3">
         <v>53</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="3">
+        <v>210</v>
+      </c>
+      <c r="D58" s="4">
         <v>510321075439</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="B59" s="3">
         <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="3">
+        <v>214</v>
+      </c>
+      <c r="D59" s="4">
         <v>440904075283</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F59" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="B60" s="3">
         <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3">
+        <v>218</v>
+      </c>
+      <c r="D60" s="4">
         <v>440620075089</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="B61" s="3">
         <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="3">
+        <v>221</v>
+      </c>
+      <c r="D61" s="4">
         <v>560820075215</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="B62" s="3">
         <v>57</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="3">
+        <v>225</v>
+      </c>
+      <c r="D62" s="4">
         <v>421204075123</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="B63" s="3">
         <v>58</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="3">
-        <v>480922075363</v>
-      </c>
-      <c r="E63" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>229</v>
+      </c>
+      <c r="D63" s="4">
+        <v>491020075071</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" s="3">
+        <v>70</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="B64" s="3">
         <v>59</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="3">
-        <v>541218075251</v>
-      </c>
-      <c r="E64" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>233</v>
+      </c>
+      <c r="D64" s="4">
+        <v>480922075363</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" s="3">
+        <v>71</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="B65" s="3">
         <v>60</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="3">
-        <v>460621075265</v>
-      </c>
-      <c r="E65" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>237</v>
+      </c>
+      <c r="D65" s="4">
+        <v>541218075251</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="3">
+        <v>64</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="B66" s="3">
         <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="3">
-        <v>500426075239</v>
-      </c>
-      <c r="E66" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="D66" s="4">
+        <v>460621075265</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" s="3">
+        <v>73</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="B67" s="3">
         <v>62</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="3">
-        <v>540301075549</v>
-      </c>
-      <c r="E67" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>245</v>
+      </c>
+      <c r="D67" s="4">
+        <v>500426075239</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F67" s="3">
+        <v>69</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="B68" s="3">
         <v>63</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="3">
-        <v>340904075218</v>
-      </c>
-      <c r="E68" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>249</v>
+      </c>
+      <c r="D68" s="4">
+        <v>540301075549</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" s="3">
+        <v>65</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="B69" s="3">
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="3">
-        <v>440723075225</v>
-      </c>
-      <c r="E69" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="D69" s="4">
+        <v>340904075218</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" s="3">
+        <v>85</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="B70" s="3">
         <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="3">
-        <v>490825075192</v>
-      </c>
-      <c r="E70" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="D70" s="4">
+        <v>440723075225</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F70" s="3">
+        <v>75</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="B71" s="3">
         <v>66</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="3">
-        <v>471202075491</v>
-      </c>
-      <c r="E71" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>260</v>
+      </c>
+      <c r="D71" s="4">
+        <v>490825075192</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="3">
+        <v>70</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="B72" s="3">
         <v>67</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="3">
-        <v>541009075263</v>
-      </c>
-      <c r="E72" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="D72" s="4">
+        <v>471202075491</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F72" s="3">
+        <v>71</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="B73" s="3">
         <v>68</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="3">
-        <v>530616075253</v>
-      </c>
-      <c r="E73" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>268</v>
+      </c>
+      <c r="D73" s="4">
+        <v>541009075263</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F73" s="3">
+        <v>65</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="B74" s="3">
         <v>69</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="3">
-        <v>550224075439</v>
-      </c>
-      <c r="E74" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>272</v>
+      </c>
+      <c r="D74" s="4">
+        <v>530616075253</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F74" s="3">
+        <v>66</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="B75" s="3">
         <v>70</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>276</v>
+      </c>
+      <c r="D75" s="4">
+        <v>550224075439</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F75" s="3">
+        <v>64</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="B76" s="3">
         <v>71</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="3">
-        <v>601007075763</v>
-      </c>
-      <c r="E76" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>279</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1999</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="B77" s="3">
         <v>72</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="3">
-        <v>441201025081</v>
-      </c>
-      <c r="E77" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="D77" s="4">
+        <v>601007075763</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="3">
+        <v>59</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="B78" s="3">
         <v>73</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="3">
-        <v>461130075054</v>
-      </c>
-      <c r="E78" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="D78" s="4">
+        <v>441201025081</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" s="3">
+        <v>74</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="B79" s="3">
         <v>74</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="3">
-        <v>531101075355</v>
-      </c>
-      <c r="E79" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="D79" s="4">
+        <v>461130075054</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F79" s="3">
+        <v>72</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="B80" s="3">
         <v>75</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="3">
-        <v>530628075015</v>
-      </c>
-      <c r="E80" s="3">
+        <v>294</v>
+      </c>
+      <c r="D80" s="4">
+        <v>531101075355</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F80" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="B81" s="3">
         <v>76</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="3">
-        <v>411116025397</v>
-      </c>
-      <c r="E81" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="D81" s="4">
+        <v>530628075015</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" s="3">
+        <v>66</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="B82" s="3">
         <v>77</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="3">
-        <v>570423075552</v>
-      </c>
-      <c r="E82" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>301</v>
+      </c>
+      <c r="D82" s="4">
+        <v>411116025397</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F82" s="3">
+        <v>77</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="B83" s="3">
         <v>78</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="3">
-        <v>370818075147</v>
-      </c>
-      <c r="E83" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>304</v>
+      </c>
+      <c r="D83" s="4">
+        <v>570423075552</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="3">
+        <v>62</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="B84" s="3">
         <v>79</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="3">
-        <v>400904075279</v>
-      </c>
-      <c r="E84" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>308</v>
+      </c>
+      <c r="D84" s="4">
+        <v>370818075147</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="3">
+        <v>82</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="B85" s="3">
         <v>80</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="3">
-        <v>561003025431</v>
-      </c>
-      <c r="E85" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>312</v>
+      </c>
+      <c r="D85" s="4">
+        <v>400904075279</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F85" s="3">
+        <v>79</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="B86" s="3">
         <v>81</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="3">
-        <v>501019075375</v>
-      </c>
-      <c r="E86" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="D86" s="4">
+        <v>561003025431</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F86" s="3">
+        <v>63</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="B87" s="3">
         <v>82</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" s="3">
-        <v>560405075373</v>
-      </c>
-      <c r="E87" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>320</v>
+      </c>
+      <c r="D87" s="4">
+        <v>501019075375</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F87" s="3">
+        <v>69</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="B88" s="3">
         <v>83</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="3">
-        <v>421020075233</v>
-      </c>
-      <c r="E88" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>324</v>
+      </c>
+      <c r="D88" s="4">
+        <v>560405075373</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="3">
+        <v>63</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="B89" s="3">
         <v>84</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D89" s="3">
-        <v>530422075239</v>
-      </c>
-      <c r="E89" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>328</v>
+      </c>
+      <c r="D89" s="4">
+        <v>421020075233</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F89" s="3">
+        <v>77</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="B90" s="3">
         <v>85</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="3">
-        <v>491108025357</v>
-      </c>
-      <c r="E90" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>332</v>
+      </c>
+      <c r="D90" s="4">
+        <v>611028075075</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F90" s="3">
+        <v>58</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="B91" s="3">
         <v>86</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="3">
-        <v>470605025080</v>
-      </c>
-      <c r="E91" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="D91" s="4">
+        <v>530422075239</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" s="3">
+        <v>66</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="B92" s="3">
         <v>87</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="3">
-        <v>530627075347</v>
-      </c>
-      <c r="E92" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>339</v>
+      </c>
+      <c r="D92" s="4">
+        <v>491108025357</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F92" s="3">
+        <v>69</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="B93" s="3">
         <v>88</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="3">
-        <v>550418075111</v>
-      </c>
-      <c r="E93" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>343</v>
+      </c>
+      <c r="D93" s="4">
+        <v>470605025080</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F93" s="3">
+        <v>72</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="B94" s="3">
         <v>89</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" s="3">
-        <v>510224075280</v>
-      </c>
-      <c r="E94" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>347</v>
+      </c>
+      <c r="D94" s="4">
+        <v>530627075347</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F94" s="3">
+        <v>66</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="B95" s="3">
         <v>90</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="3">
-        <v>530228075251</v>
-      </c>
-      <c r="E95" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>351</v>
+      </c>
+      <c r="D95" s="4">
+        <v>550418075111</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F95" s="3">
+        <v>64</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="B96" s="3">
         <v>91</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="3">
-        <v>570413076033</v>
-      </c>
-      <c r="E96" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>355</v>
+      </c>
+      <c r="D96" s="4">
+        <v>510224075280</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F96" s="3">
+        <v>68</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="B97" s="3">
         <v>92</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="3">
-        <v>380605025796</v>
-      </c>
-      <c r="E97" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>359</v>
+      </c>
+      <c r="D97" s="4">
+        <v>530228075251</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" s="3">
+        <v>66</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="B98" s="3">
         <v>93</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="3">
-        <v>520210025759</v>
-      </c>
-      <c r="E98" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>363</v>
+      </c>
+      <c r="D98" s="4">
+        <v>570413076033</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F98" s="3">
+        <v>62</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="B99" s="3">
         <v>94</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D99" s="3">
-        <v>470205075396</v>
-      </c>
-      <c r="E99" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>367</v>
+      </c>
+      <c r="D99" s="4">
+        <v>380605025796</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F99" s="3">
+        <v>81</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="B100" s="3">
         <v>95</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="3">
-        <v>560605025557</v>
-      </c>
-      <c r="E100" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>370</v>
+      </c>
+      <c r="D100" s="4">
+        <v>520210025759</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F100" s="3">
+        <v>67</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="B101" s="3">
         <v>96</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" s="3">
-        <v>530306075573</v>
-      </c>
-      <c r="E101" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>374</v>
+      </c>
+      <c r="D101" s="4">
+        <v>470205075396</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F101" s="3">
+        <v>72</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="B102" s="3">
         <v>97</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" s="3">
-        <v>510810086417</v>
-      </c>
-      <c r="E102" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>378</v>
+      </c>
+      <c r="D102" s="4">
+        <v>560605025557</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F102" s="3">
+        <v>63</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="B103" s="3">
         <v>98</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="3">
-        <v>580224085837</v>
-      </c>
-      <c r="E103" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>382</v>
+      </c>
+      <c r="D103" s="4">
+        <v>530306075573</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F103" s="3">
+        <v>66</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="B104" s="3">
         <v>99</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D104" s="3">
-        <v>620130025095</v>
-      </c>
-      <c r="E104" s="3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>385</v>
+      </c>
+      <c r="D104" s="4">
+        <v>510810086417</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="3">
+        <v>68</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="B105" s="3">
         <v>100</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="3">
-        <v>550522075015</v>
-      </c>
-      <c r="E105" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>388</v>
+      </c>
+      <c r="D105" s="4">
+        <v>580224085837</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F105" s="3">
+        <v>61</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="B106" s="3">
         <v>101</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" s="3">
-        <v>511212075579</v>
-      </c>
-      <c r="E106" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>392</v>
+      </c>
+      <c r="D106" s="4">
+        <v>620130025095</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F106" s="3">
+        <v>57</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="B107" s="3">
         <v>102</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="3">
-        <v>520311025475</v>
-      </c>
-      <c r="E107" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>396</v>
+      </c>
+      <c r="D107" s="4">
+        <v>550522075015</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F107" s="3">
+        <v>64</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="B108" s="3">
         <v>103</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" s="3">
-        <v>310719075104</v>
-      </c>
-      <c r="E108" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>400</v>
+      </c>
+      <c r="D108" s="4">
+        <v>511212075579</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F108" s="3">
+        <v>67</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="B109" s="3">
         <v>104</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="3">
-        <v>490805025219</v>
-      </c>
-      <c r="E109" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>404</v>
+      </c>
+      <c r="D109" s="4">
+        <v>520311025475</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F109" s="3">
+        <v>67</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="B110" s="3">
         <v>105</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="3">
-        <v>500306025667</v>
-      </c>
-      <c r="E110" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>408</v>
+      </c>
+      <c r="D110" s="4">
+        <v>310719075104</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F110" s="3">
+        <v>88</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="B111" s="3">
         <v>106</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="3">
-        <v>520715075233</v>
-      </c>
-      <c r="E111" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>411</v>
+      </c>
+      <c r="D111" s="4">
+        <v>490805025219</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F111" s="3">
+        <v>70</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="B112" s="3">
         <v>107</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" s="3">
-        <v>471124025287</v>
-      </c>
-      <c r="E112" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>414</v>
+      </c>
+      <c r="D112" s="4">
+        <v>500306025667</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F112" s="3">
+        <v>69</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="B113" s="3">
         <v>108</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" s="3">
-        <v>520201075201</v>
-      </c>
-      <c r="E113" s="3">
+        <v>417</v>
+      </c>
+      <c r="D113" s="4">
+        <v>520715075233</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F113" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="G113" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="B114" s="3">
         <v>109</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D114" s="3">
-        <v>561229025645</v>
-      </c>
-      <c r="E114" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>421</v>
+      </c>
+      <c r="D114" s="4">
+        <v>471124025287</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114" s="3">
+        <v>71</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="B115" s="3">
         <v>110</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" s="3">
-        <v>510513075201</v>
-      </c>
-      <c r="E115" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>425</v>
+      </c>
+      <c r="D115" s="4">
+        <v>520201075201</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F115" s="3">
+        <v>67</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="B116" s="3">
         <v>111</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="3">
-        <v>540503075192</v>
-      </c>
-      <c r="E116" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>429</v>
+      </c>
+      <c r="D116" s="4">
+        <v>561229025645</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F116" s="3">
+        <v>62</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="B117" s="3">
         <v>112</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D117" s="3">
-        <v>541105075220</v>
-      </c>
-      <c r="E117" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>433</v>
+      </c>
+      <c r="D117" s="4">
+        <v>510513075201</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F117" s="3">
+        <v>68</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="B118" s="3">
         <v>113</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" s="3">
-        <v>490525075182</v>
-      </c>
-      <c r="E118" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>437</v>
+      </c>
+      <c r="D118" s="4">
+        <v>540503075192</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F118" s="3">
+        <v>65</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="B119" s="3">
         <v>114</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D119" s="3">
-        <v>461207075213</v>
-      </c>
-      <c r="E119" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>440</v>
+      </c>
+      <c r="D119" s="4">
+        <v>541105075220</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F119" s="3">
+        <v>64</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="B120" s="3">
         <v>115</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="3">
-        <v>421105075080</v>
-      </c>
-      <c r="E120" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>444</v>
+      </c>
+      <c r="D120" s="4">
+        <v>490525075182</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F120" s="3">
+        <v>70</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="B121" s="3">
         <v>116</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D121" s="3">
-        <v>580326075488</v>
-      </c>
-      <c r="E121" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>448</v>
+      </c>
+      <c r="D121" s="4">
+        <v>470513025497</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F121" s="3">
+        <v>72</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="B122" s="3">
         <v>117</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D122" s="3">
-        <v>500722075196</v>
-      </c>
-      <c r="E122" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>451</v>
+      </c>
+      <c r="D122" s="4">
+        <v>461207075213</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F122" s="3">
+        <v>72</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="B123" s="3">
         <v>118</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D123" s="3">
-        <v>480102025459</v>
-      </c>
-      <c r="E123" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>455</v>
+      </c>
+      <c r="D123" s="4">
+        <v>421105075080</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F123" s="3">
+        <v>76</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="B124" s="3">
         <v>119</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D124" s="3">
-        <v>500327075452</v>
-      </c>
-      <c r="E124" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>459</v>
+      </c>
+      <c r="D124" s="4">
+        <v>580326075488</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F124" s="3">
+        <v>61</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="B125" s="3">
         <v>120</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" s="3">
-        <v>580315075765</v>
-      </c>
-      <c r="E125" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>463</v>
+      </c>
+      <c r="D125" s="4">
+        <v>500722075196</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F125" s="3">
+        <v>69</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="B126" s="3">
         <v>121</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="3">
-        <v>560313075691</v>
-      </c>
-      <c r="E126" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>466</v>
+      </c>
+      <c r="D126" s="4">
+        <v>480102025459</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F126" s="3">
+        <v>71</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="B127" s="3">
         <v>122</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D127" s="3">
-        <v>500725025274</v>
-      </c>
-      <c r="E127" s="3">
+        <v>469</v>
+      </c>
+      <c r="D127" s="4">
+        <v>500327075452</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F127" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="G127" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="B128" s="3">
         <v>123</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D128" s="3">
-        <v>510417075121</v>
-      </c>
-      <c r="E128" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>473</v>
+      </c>
+      <c r="D128" s="4">
+        <v>580315075765</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F128" s="3">
+        <v>61</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="B129" s="3">
         <v>124</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D129" s="3">
-        <v>410722075187</v>
-      </c>
-      <c r="E129" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>477</v>
+      </c>
+      <c r="D129" s="4">
+        <v>560313075691</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F129" s="3">
+        <v>63</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="B130" s="3">
         <v>125</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D130" s="3">
-        <v>470324075399</v>
-      </c>
-      <c r="E130" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>481</v>
+      </c>
+      <c r="D130" s="4">
+        <v>500725025274</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F130" s="3">
+        <v>69</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="B131" s="3">
         <v>126</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D131" s="3">
-        <v>481219075200</v>
-      </c>
-      <c r="E131" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>484</v>
+      </c>
+      <c r="D131" s="4">
+        <v>510417075121</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F131" s="3">
+        <v>68</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="B132" s="3">
         <v>127</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D132" s="3">
-        <v>491012075229</v>
-      </c>
-      <c r="E132" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>487</v>
+      </c>
+      <c r="D132" s="4">
+        <v>410722075187</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F132" s="3">
+        <v>78</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="B133" s="3">
         <v>128</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D133" s="3">
-        <v>501003075215</v>
-      </c>
-      <c r="E133" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>490</v>
+      </c>
+      <c r="D133" s="4">
+        <v>470324075399</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F133" s="3">
+        <v>72</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="B134" s="3">
         <v>129</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D134" s="3">
-        <v>360618075303</v>
-      </c>
-      <c r="E134" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>494</v>
+      </c>
+      <c r="D134" s="4">
+        <v>481219075200</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F134" s="3">
+        <v>70</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="B135" s="3">
         <v>130</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D135" s="3">
-        <v>530628075023</v>
-      </c>
-      <c r="E135" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>498</v>
+      </c>
+      <c r="D135" s="4">
+        <v>491012075229</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F135" s="3">
+        <v>70</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="B136" s="3">
         <v>131</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D136" s="3">
-        <v>420508085449</v>
-      </c>
-      <c r="E136" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>501</v>
+      </c>
+      <c r="D136" s="4">
+        <v>501003075215</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F136" s="3">
+        <v>69</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="B137" s="3">
         <v>132</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D137" s="3">
-        <v>560408075715</v>
-      </c>
-      <c r="E137" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>505</v>
+      </c>
+      <c r="D137" s="4">
+        <v>360618075303</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F137" s="3">
+        <v>83</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="B138" s="3">
         <v>133</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138" s="3">
-        <v>560301075846</v>
-      </c>
-      <c r="E138" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>509</v>
+      </c>
+      <c r="D138" s="4">
+        <v>530628075023</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F138" s="3">
+        <v>66</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="B139" s="3">
         <v>134</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D139" s="3">
-        <v>540303015099</v>
-      </c>
-      <c r="E139" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>512</v>
+      </c>
+      <c r="D139" s="4">
+        <v>420508085449</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F139" s="3">
+        <v>77</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="B140" s="3">
         <v>135</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D140" s="3">
-        <v>481221075285</v>
-      </c>
-      <c r="E140" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>515</v>
+      </c>
+      <c r="D140" s="4">
+        <v>560408075715</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F140" s="3">
+        <v>63</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="B141" s="3">
         <v>136</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D141" s="3">
-        <v>420927075149</v>
-      </c>
-      <c r="E141" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>519</v>
+      </c>
+      <c r="D141" s="4">
+        <v>560301075846</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F141" s="3">
+        <v>63</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="B142" s="3">
         <v>137</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D142" s="3">
-        <v>480414075156</v>
-      </c>
-      <c r="E142" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>523</v>
+      </c>
+      <c r="D142" s="4">
+        <v>540303015099</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F142" s="3">
+        <v>65</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="B143" s="3">
         <v>138</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D143" s="3">
-        <v>480904075159</v>
-      </c>
-      <c r="E143" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>527</v>
+      </c>
+      <c r="D143" s="4">
+        <v>481221075285</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F143" s="3">
+        <v>70</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="B144" s="3">
         <v>139</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D144" s="3">
-        <v>540508075503</v>
-      </c>
-      <c r="E144" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>531</v>
+      </c>
+      <c r="D144" s="4">
+        <v>420927075149</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F144" s="3">
+        <v>77</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="B145" s="3">
         <v>140</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D145" s="3">
-        <v>591111025743</v>
-      </c>
-      <c r="E145" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>535</v>
+      </c>
+      <c r="D145" s="4">
+        <v>480414075156</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F145" s="3">
+        <v>71</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="B146" s="3">
         <v>141</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D146" s="3">
-        <v>590118075474</v>
-      </c>
-      <c r="E146" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>538</v>
+      </c>
+      <c r="D146" s="4">
+        <v>480904075159</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F146" s="3">
+        <v>71</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="B147" s="3">
         <v>142</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D147" s="3">
-        <v>450107075001</v>
-      </c>
-      <c r="E147" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>542</v>
+      </c>
+      <c r="D147" s="4">
+        <v>540508075503</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F147" s="3">
+        <v>65</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="B148" s="3">
         <v>143</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D148" s="3">
-        <v>501209025221</v>
-      </c>
-      <c r="E148" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>545</v>
+      </c>
+      <c r="D148" s="4">
+        <v>591111025743</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F148" s="3">
+        <v>59</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="B149" s="3">
         <v>144</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D149" s="3">
-        <v>560406075105</v>
-      </c>
-      <c r="E149" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>549</v>
+      </c>
+      <c r="D149" s="4">
+        <v>590118075474</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F149" s="3">
+        <v>60</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="B150" s="3">
         <v>145</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D150" s="3">
-        <v>501020075436</v>
-      </c>
-      <c r="E150" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>553</v>
+      </c>
+      <c r="D150" s="4">
+        <v>450107075001</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F150" s="3">
+        <v>75</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="B151" s="3">
         <v>146</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D151" s="3">
-        <v>241104075136</v>
-      </c>
-      <c r="E151" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>557</v>
+      </c>
+      <c r="D151" s="4">
+        <v>501209025221</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F151" s="3">
+        <v>69</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="B152" s="3">
         <v>147</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D152" s="3">
-        <v>301126075016</v>
-      </c>
-      <c r="E152" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>561</v>
+      </c>
+      <c r="D152" s="4">
+        <v>560406075105</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F152" s="3">
+        <v>63</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="B153" s="3">
         <v>148</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D153" s="3">
-        <v>310904075114</v>
-      </c>
-      <c r="E153" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>565</v>
+      </c>
+      <c r="D153" s="4">
+        <v>501020075436</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F153" s="3">
+        <v>69</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="B154" s="3">
         <v>149</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" s="3">
-        <v>370106025352</v>
-      </c>
-      <c r="E154" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>569</v>
+      </c>
+      <c r="D154" s="4">
+        <v>241104075136</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F154" s="3">
+        <v>96</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="B155" s="3">
         <v>150</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D155" s="3">
-        <v>491028075071</v>
-      </c>
-      <c r="E155" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>573</v>
+      </c>
+      <c r="D155" s="4">
+        <v>301126075016</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F155" s="3">
+        <v>90</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="B156" s="3">
         <v>151</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D156" s="3">
-        <v>590926075448</v>
-      </c>
-      <c r="E156" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>577</v>
+      </c>
+      <c r="D156" s="4">
+        <v>310904075114</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F156" s="3">
+        <v>88</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="B157" s="3">
         <v>152</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D157" s="3">
-        <v>380621025276</v>
-      </c>
-      <c r="E157" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>581</v>
+      </c>
+      <c r="D157" s="4">
+        <v>370106025352</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F157" s="3">
+        <v>83</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="B158" s="3">
         <v>153</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D158" s="3">
-        <v>670401075327</v>
-      </c>
-      <c r="E158" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>585</v>
+      </c>
+      <c r="D158" s="4">
+        <v>491028075071</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F158" s="3">
+        <v>70</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="B159" s="3">
         <v>154</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D159" s="3">
-        <v>511211075315</v>
-      </c>
-      <c r="E159" s="3">
-        <v>68</v>
+        <v>588</v>
+      </c>
+      <c r="D159" s="4">
+        <v>590926075448</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F159" s="3">
+        <v>60</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" s="3">
+        <v>155</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D160" s="4">
+        <v>380621025276</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F160" s="3">
+        <v>81</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
